--- a/assets/upload/3.a.5.dosen_praktisi.xlsx
+++ b/assets/upload/3.a.5.dosen_praktisi.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B38438-E918-44CB-ADF0-9B0C4CCBAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="-25320" yWindow="-2025" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KaPulahtaFTUP</author>
-    <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,47 +50,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Arsitektur s1
-Teknik Sipil S1
-Teknik Mesin S1
-Teknik Industri S1
-Teknik Informatika S1
-Teknik Elektro S1
-Teknik Mesin D3
-Teknik Elektro D3
-Teknik Mesin S2</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>prodi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nik/nidn</t>
   </si>
@@ -127,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1015,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,39 +988,35 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1072,7 +1025,6 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
